--- a/Project/ActionItemCheck_KK.xlsx
+++ b/Project/ActionItemCheck_KK.xlsx
@@ -3409,16 +3409,18 @@
       <rPr>
         <rFont val="Malgun Gothic"/>
         <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[이번주 진행]</t>
     </r>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 원본 데이터(240000)개에서 훈련용(2만개), 
@@ -3454,8 +3456,9 @@
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3464,16 +3467,18 @@
       <rPr>
         <rFont val="Malgun Gothic"/>
         <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[이슈 논의]</t>
     </r>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 서버 발급받아야함
@@ -3483,16 +3488,18 @@
       <rPr>
         <rFont val="Malgun Gothic"/>
         <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>[다음주 계획]</t>
     </r>
     <r>
       <rPr>
         <rFont val="Malgun Gothic"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <color rgb="FF000000"/>
+        <sz val="11.0"/>
+        <u/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -3502,6 +3509,7 @@
         <rFont val="Malgun Gothic"/>
         <color rgb="FFFF0000"/>
         <sz val="11.0"/>
+        <u/>
       </rPr>
       <t>1) SOTA 모델 활용해서 알고리즘 추가 구현
 2) 서버 활용해서 전체 데이터 진행 예정</t>
@@ -6427,7 +6435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -6484,6 +6492,12 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Malgun Gothic"/>
     </font>
     <font>
@@ -6579,7 +6593,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -6626,13 +6640,16 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -6641,19 +6658,19 @@
     <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7149,13 +7166,13 @@
       <c r="I5" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="17" t="s">
         <v>58</v>
       </c>
       <c r="M5" s="8" t="s">
@@ -7183,15 +7200,15 @@
       <c r="AG5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="J6" s="9" t="s">
         <v>60</v>
       </c>
@@ -7236,28 +7253,28 @@
       <c r="D7" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="21" t="s">
         <v>72</v>
       </c>
       <c r="M7" s="8" t="s">
@@ -7288,19 +7305,19 @@
       <c r="A8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
       <c r="M8" s="8" t="s">
         <v>76</v>
       </c>
@@ -7326,51 +7343,51 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25"/>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="5"/>
@@ -42059,22 +42076,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:H6"/>
     <mergeCell ref="I5:I6"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
